--- a/static/files/equipment.xlsx
+++ b/static/files/equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22725FDF-4F90-4D8C-ADA9-44C90345C913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DF1F0-0DD8-4BB7-999C-8ECE9196A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="552" yWindow="2064" windowWidth="21084" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
-  <si>
-    <t>设备名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,23 +59,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试作型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏伟制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏伟</t>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名(不同EID请设置不同名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全沉浸式头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,43 +95,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试设备2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试作型Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏伟制造Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇塞Q</t>
+    <t>富士康A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士康B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士康C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID(不同设备实体的ID均不同)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士康D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天基激光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦始皇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士康O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMICR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EID(若BCDE列相同,则EID相同，可不填，根据BCDE自增)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +176,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,8 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,57 +489,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -516,343 +553,294 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>99.9</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="G5">
+        <v>1200</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>4523</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>153</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>4523</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>153</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>4523</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>153</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7">
-        <v>4523</v>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
       <c r="G7">
+        <v>9999</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>99999</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>99999</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>153</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="K7">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>4523</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>4523</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>153</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>4523</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>153</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>4523</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>153</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>9999</v>
+      <c r="L9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/equipment.xlsx
+++ b/static/files/equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DF1F0-0DD8-4BB7-999C-8ECE9196A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175794B-20AF-4AE7-B3BE-50759C56EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="2064" windowWidth="21084" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4308" yWindow="1908" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备ID(不同设备实体的ID均不同)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古代科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,15 +151,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EID(若BCDE列相同,则EID相同，可不填，根据BCDE自增)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>现在2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EID(若BCD列相同,则EID相同，可不填，根据BCD自增)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +199,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,15 +223,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{6EA7AAC7-6F0A-4160-8A48-8674DB6A9822}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -526,8 +549,8 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
+      <c r="H1" t="s">
+        <v>34</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -542,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,11 +587,11 @@
       <c r="G2">
         <v>1200</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -740,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
       </c>
       <c r="G7">
         <v>9999</v>
@@ -775,19 +798,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
       <c r="G8">
         <v>99999</v>
@@ -810,16 +833,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -840,6 +863,41 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>99999</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/static/files/equipment.xlsx
+++ b/static/files/equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFE6FF-BDB5-4FE8-B405-64E72E1C8027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ADFA56-F820-4AED-BDD6-0127373F85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="79">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备名(不同EID请设置不同名)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,14 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,27 +627,27 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.109375" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
+      <c r="C1" t="s">
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -658,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -675,1562 +679,1562 @@
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="2">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="2">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="2">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31">
+        <v>46</v>
+      </c>
+      <c r="I31" s="2">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="2">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="2">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I40" s="2">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="2">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="2">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="2">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="2">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52" s="2">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="2">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I56" s="2">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I58" s="2">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I60" s="2">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/equipment.xlsx
+++ b/static/files/equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2D591-A681-4976-B48C-0B4D3220359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E12CCE-9E6D-404B-90A3-8AA3FF4B5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2724" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,50 @@
   </si>
   <si>
     <t>A0013</t>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血氧仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,7 +585,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -907,7 +951,42 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H11" s="3"/>
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H12" s="3"/>

--- a/static/files/equipment.xlsx
+++ b/static/files/equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E12CCE-9E6D-404B-90A3-8AA3FF4B5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411A1F18-4B10-4CA2-AF75-5A27748075E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2724" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="165">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,331 @@
   <si>
     <t>Microsoft</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类2</t>
+  </si>
+  <si>
+    <t>分类3</t>
+  </si>
+  <si>
+    <t>分类4</t>
+  </si>
+  <si>
+    <t>分类5</t>
+  </si>
+  <si>
+    <t>分类6</t>
+  </si>
+  <si>
+    <t>分类7</t>
+  </si>
+  <si>
+    <t>分类8</t>
+  </si>
+  <si>
+    <t>分类9</t>
+  </si>
+  <si>
+    <t>分类10</t>
+  </si>
+  <si>
+    <t>分类11</t>
+  </si>
+  <si>
+    <t>分类12</t>
+  </si>
+  <si>
+    <t>分类13</t>
+  </si>
+  <si>
+    <t>分类14</t>
+  </si>
+  <si>
+    <t>分类15</t>
+  </si>
+  <si>
+    <t>分类16</t>
+  </si>
+  <si>
+    <t>分类17</t>
+  </si>
+  <si>
+    <t>分类18</t>
+  </si>
+  <si>
+    <t>分类19</t>
+  </si>
+  <si>
+    <t>分类20</t>
+  </si>
+  <si>
+    <t>分类21</t>
+  </si>
+  <si>
+    <t>分类22</t>
+  </si>
+  <si>
+    <t>分类23</t>
+  </si>
+  <si>
+    <t>分类24</t>
+  </si>
+  <si>
+    <t>分类25</t>
+  </si>
+  <si>
+    <t>分类26</t>
+  </si>
+  <si>
+    <t>分类27</t>
+  </si>
+  <si>
+    <t>501元</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>A1112</t>
+  </si>
+  <si>
+    <t>502元</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>A1113</t>
+  </si>
+  <si>
+    <t>503元</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>A1114</t>
+  </si>
+  <si>
+    <t>504元</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>A1115</t>
+  </si>
+  <si>
+    <t>505元</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>A1116</t>
+  </si>
+  <si>
+    <t>506元</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>A1117</t>
+  </si>
+  <si>
+    <t>507元</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>A1118</t>
+  </si>
+  <si>
+    <t>508元</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>A1119</t>
+  </si>
+  <si>
+    <t>509元</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>A1120</t>
+  </si>
+  <si>
+    <t>510元</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>A1121</t>
+  </si>
+  <si>
+    <t>511元</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>A1122</t>
+  </si>
+  <si>
+    <t>512元</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>A1123</t>
+  </si>
+  <si>
+    <t>513元</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>A1124</t>
+  </si>
+  <si>
+    <t>514元</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>A1125</t>
+  </si>
+  <si>
+    <t>515元</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>A1126</t>
+  </si>
+  <si>
+    <t>516元</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>A1127</t>
+  </si>
+  <si>
+    <t>517元</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>A1128</t>
+  </si>
+  <si>
+    <t>518元</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>A1129</t>
+  </si>
+  <si>
+    <t>519元</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>A1130</t>
+  </si>
+  <si>
+    <t>520元</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>A1131</t>
+  </si>
+  <si>
+    <t>521元</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>A1132</t>
+  </si>
+  <si>
+    <t>522元</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>A1133</t>
+  </si>
+  <si>
+    <t>523元</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>A1134</t>
+  </si>
+  <si>
+    <t>524元</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>A1135</t>
+  </si>
+  <si>
+    <t>525元</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>A1136</t>
+  </si>
+  <si>
+    <t>526元</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>A1137</t>
+  </si>
+  <si>
+    <t>527元</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>A1138</t>
   </si>
 </sst>
 </file>
@@ -584,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,133 +1314,982 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="8:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
